--- a/lignin_saf/cost_evaluation.xlsx
+++ b/lignin_saf/cost_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/rms6987_psu_edu/Documents/Students/Students_shared/Shi_Wadgama_shared/Models/ATJSPK/lignin_saf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{1632F35C-E3AC-4DAB-94CF-47574C467801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7A6043-2140-4E5C-81BA-7DD6F8C317D2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{1632F35C-E3AC-4DAB-94CF-47574C467801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C02826C-0FDF-4667-A7FC-4294B95A70A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>Unit</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>[&lt;chilled_water: -5.13e+08 kJ/hr, 3.4e+05 kmol/hr, 2.57e+03 USD/hr&gt;]</t>
+  </si>
+  <si>
+    <t>WWTC</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>[&lt;high_pressure_steam: -5.05e+08 kJ/hr, -1.57e+04 kmol/hr, -4.98e+03 USD/hr&gt;, &lt;low_pressure_steam: -1.04e+09 kJ/hr, -2.7e+04 kmol/hr, -6.42e+03 USD/hr&gt;, &lt;cooling_water: -7.66e+06 kJ/hr, 5.23e+03 kmol/hr, 2.55 USD/hr&gt;]</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +340,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -665,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,310 +686,310 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="214.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
         <v>589762.69810000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <v>2703239.51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>24.300301078051501</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>2417586.0950000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>10.323196017630311</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>6870158.8509999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
         <v>5037.3585279999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
         <v>5179.074936</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>5209901.62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>36.846099519485733</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>62994120.32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>-9.2393112561059371E-13</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
         <v>2281132.9939999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>139575.23360000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>44110.688340000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>176108.27729999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>779.80927887464281</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="16">
         <v>1231512.909</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>1558.1744804707539</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <v>746973.67119999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
         <v>49943.591240000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <f>SUM(E3:E18)</f>
         <v>85464342.892244011</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -998,257 +1008,257 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>0</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="10">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>779.80927887464281</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>6</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>10.323196017630311</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <v>7</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>-9.2393112561059371E-13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <v>9</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <v>10</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>11</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>36.846153911404002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>12</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>24.300301078051501</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>13</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>14</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>15</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>1558.1746113774041</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <v>16</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1472,6 +1482,256 @@
       </c>
       <c r="D63" s="2">
         <v>1202.7182156310489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="5">
+        <v>718.22272150000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="5">
+        <v>28.161914339999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="5">
+        <v>759.10313729999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.3859000000000001E-11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="5">
+        <v>19.225353779999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="5">
+        <v>8.9482215259999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>12</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1202.718216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>15</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>16</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-7815.1888879999997</v>
       </c>
     </row>
   </sheetData>
@@ -1495,67 +1755,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>286.26100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>1.85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>266.577</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>1.75</v>
       </c>
     </row>
